--- a/CRUD.xlsx
+++ b/CRUD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>No</t>
   </si>
@@ -25,76 +25,118 @@
     <t>SQLファイル名</t>
   </si>
   <si>
-    <t>guest_token</t>
-  </si>
-  <si>
-    <t>guild</t>
-  </si>
-  <si>
-    <t>guild_owner_relation</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
-    <t>task</t>
-  </si>
-  <si>
-    <t>CreateGuestToken</t>
-  </si>
-  <si>
-    <t>guest_token.sql</t>
+    <t>accounts</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>author_books</t>
+  </si>
+  <si>
+    <t>books</t>
+  </si>
+  <si>
+    <t>bugs</t>
+  </si>
+  <si>
+    <t>bugs_products</t>
+  </si>
+  <si>
+    <t>employee</t>
+  </si>
+  <si>
+    <t>order_desc</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>quest</t>
+  </si>
+  <si>
+    <t>tasks</t>
+  </si>
+  <si>
+    <t>user_task_relation</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>ListBook</t>
+  </si>
+  <si>
+    <t>book.sql</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>ListBookByPublish</t>
+  </si>
+  <si>
+    <t>ListBug</t>
+  </si>
+  <si>
+    <t>bug.sql</t>
+  </si>
+  <si>
+    <t>R, R</t>
+  </si>
+  <si>
+    <t>ListUserAndEmployee</t>
+  </si>
+  <si>
+    <t>employee.sql</t>
+  </si>
+  <si>
+    <t>ListGuest</t>
+  </si>
+  <si>
+    <t>guest.sql</t>
+  </si>
+  <si>
+    <t>ListOrder</t>
+  </si>
+  <si>
+    <t>order.sql</t>
+  </si>
+  <si>
+    <t>CreateTask</t>
+  </si>
+  <si>
+    <t>task.sql</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>GetGuestTokenByMailWithinExpirationDate</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>GetGuestTokenByTokenWithinExpirationDate</t>
-  </si>
-  <si>
-    <t>DeleteGuestToken</t>
+    <t>ListTask</t>
+  </si>
+  <si>
+    <t>CreateUser</t>
+  </si>
+  <si>
+    <t>user.sql</t>
+  </si>
+  <si>
+    <t>GetUserByID</t>
+  </si>
+  <si>
+    <t>ListUserByTask</t>
+  </si>
+  <si>
+    <t>UpdateUserAsLoggedIn</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>DeleteUser</t>
   </si>
   <si>
     <t>D</t>
-  </si>
-  <si>
-    <t>CreateGuildWithRegistering</t>
-  </si>
-  <si>
-    <t>guild.sql</t>
-  </si>
-  <si>
-    <t>UpdateGuildWithRegistered</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>GetGuildByID</t>
-  </si>
-  <si>
-    <t>CreateGuildOwnerRelation</t>
-  </si>
-  <si>
-    <t>guild_owner_relation.sql</t>
-  </si>
-  <si>
-    <t>CreateOwner</t>
-  </si>
-  <si>
-    <t>owner.sql</t>
-  </si>
-  <si>
-    <t>ListTask</t>
-  </si>
-  <si>
-    <t>task.sql</t>
   </si>
 </sst>
 </file>
@@ -403,6 +445,23 @@
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="true" max="1" min="1" width="4"/>
+    <col customWidth="true" max="2" min="2" width="23"/>
+    <col customWidth="true" max="3" min="3" width="15"/>
+    <col customWidth="true" max="4" min="4" width="9"/>
+    <col customWidth="true" max="5" min="5" width="7"/>
+    <col customWidth="true" max="6" min="6" width="13"/>
+    <col customWidth="true" max="7" min="7" width="6"/>
+    <col customWidth="true" max="8" min="8" width="5"/>
+    <col customWidth="true" max="9" min="9" width="14"/>
+    <col customWidth="true" max="10" min="10" width="9"/>
+    <col customWidth="true" max="11" min="11" width="11"/>
+    <col customWidth="true" max="12" min="12" width="8"/>
+    <col customWidth="true" max="14" min="13" width="6"/>
+    <col customWidth="true" max="15" min="15" width="19"/>
+    <col customWidth="true" max="16" min="16" width="6"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -429,19 +488,43 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -449,13 +532,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -463,13 +552,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -477,13 +572,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -491,13 +589,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="M6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -505,13 +603,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -519,16 +620,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
+        <v>30</v>
+      </c>
+      <c r="N8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -536,13 +634,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="N9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -550,13 +648,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" t="s">
-        <v>10</v>
+        <v>34</v>
+      </c>
+      <c r="P10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11">
@@ -564,13 +662,58 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O12" t="s">
+        <v>18</v>
+      </c>
+      <c r="P12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
         <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="P13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="P14" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/CRUD.xlsx
+++ b/CRUD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>No</t>
   </si>
@@ -25,118 +25,28 @@
     <t>SQLファイル名</t>
   </si>
   <si>
-    <t>accounts</t>
-  </si>
-  <si>
-    <t>author</t>
-  </si>
-  <si>
-    <t>author_books</t>
-  </si>
-  <si>
-    <t>books</t>
-  </si>
-  <si>
-    <t>bugs</t>
-  </si>
-  <si>
-    <t>bugs_products</t>
-  </si>
-  <si>
-    <t>employee</t>
-  </si>
-  <si>
-    <t>order_desc</t>
-  </si>
-  <si>
-    <t>product</t>
+    <t>book_histories</t>
   </si>
   <si>
     <t>quest</t>
   </si>
   <si>
-    <t>tasks</t>
-  </si>
-  <si>
-    <t>user_task_relation</t>
-  </si>
-  <si>
-    <t>users</t>
-  </si>
-  <si>
-    <t>ListBook</t>
+    <t>CreateBookHistoryByBook</t>
   </si>
   <si>
     <t>book.sql</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>ListGuest</t>
+  </si>
+  <si>
+    <t>guest.sql</t>
+  </si>
+  <si>
     <t>R</t>
-  </si>
-  <si>
-    <t>ListBookByPublish</t>
-  </si>
-  <si>
-    <t>ListBug</t>
-  </si>
-  <si>
-    <t>bug.sql</t>
-  </si>
-  <si>
-    <t>R, R</t>
-  </si>
-  <si>
-    <t>ListUserAndEmployee</t>
-  </si>
-  <si>
-    <t>employee.sql</t>
-  </si>
-  <si>
-    <t>ListGuest</t>
-  </si>
-  <si>
-    <t>guest.sql</t>
-  </si>
-  <si>
-    <t>ListOrder</t>
-  </si>
-  <si>
-    <t>order.sql</t>
-  </si>
-  <si>
-    <t>CreateTask</t>
-  </si>
-  <si>
-    <t>task.sql</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>ListTask</t>
-  </si>
-  <si>
-    <t>CreateUser</t>
-  </si>
-  <si>
-    <t>user.sql</t>
-  </si>
-  <si>
-    <t>GetUserByID</t>
-  </si>
-  <si>
-    <t>ListUserByTask</t>
-  </si>
-  <si>
-    <t>UpdateUserAsLoggedIn</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>DeleteUser</t>
-  </si>
-  <si>
-    <t>D</t>
   </si>
 </sst>
 </file>
@@ -446,21 +356,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col customWidth="true" max="1" min="1" width="4"/>
-    <col customWidth="true" max="2" min="2" width="23"/>
-    <col customWidth="true" max="3" min="3" width="15"/>
-    <col customWidth="true" max="4" min="4" width="9"/>
-    <col customWidth="true" max="5" min="5" width="7"/>
-    <col customWidth="true" max="6" min="6" width="13"/>
-    <col customWidth="true" max="7" min="7" width="6"/>
-    <col customWidth="true" max="8" min="8" width="5"/>
-    <col customWidth="true" max="9" min="9" width="14"/>
-    <col customWidth="true" max="10" min="10" width="9"/>
-    <col customWidth="true" max="11" min="11" width="11"/>
-    <col customWidth="true" max="12" min="12" width="8"/>
-    <col customWidth="true" max="14" min="13" width="6"/>
-    <col customWidth="true" max="15" min="15" width="19"/>
-    <col customWidth="true" max="16" min="16" width="6"/>
+    <col customWidth="true" max="2" min="2" width="26"/>
+    <col customWidth="true" max="3" min="3" width="12"/>
+    <col customWidth="true" max="4" min="4" width="15"/>
+    <col customWidth="true" max="5" min="5" width="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -479,52 +378,19 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -532,188 +398,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
-      <c r="P5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="N8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="N9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="P10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
         <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="P11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="O12" t="s">
-        <v>18</v>
-      </c>
-      <c r="P12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="P13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="P14" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/CRUD.xlsx
+++ b/CRUD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>No</t>
   </si>
@@ -28,6 +28,9 @@
     <t>book_histories</t>
   </si>
   <si>
+    <t>books</t>
+  </si>
+  <si>
     <t>quest</t>
   </si>
   <si>
@@ -37,6 +40,9 @@
     <t>book.sql</t>
   </si>
   <si>
+    <t>R</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
@@ -44,9 +50,6 @@
   </si>
   <si>
     <t>guest.sql</t>
-  </si>
-  <si>
-    <t>R</t>
   </si>
 </sst>
 </file>
@@ -359,7 +362,7 @@
     <col customWidth="true" max="2" min="2" width="26"/>
     <col customWidth="true" max="3" min="3" width="12"/>
     <col customWidth="true" max="4" min="4" width="15"/>
-    <col customWidth="true" max="5" min="5" width="6"/>
+    <col customWidth="true" max="6" min="5" width="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -378,19 +381,25 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -398,13 +407,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/CRUD.xlsx
+++ b/CRUD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>No</t>
   </si>
@@ -25,31 +25,124 @@
     <t>SQLファイル名</t>
   </si>
   <si>
+    <t>accounts</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>author_books</t>
+  </si>
+  <si>
     <t>book_histories</t>
   </si>
   <si>
     <t>books</t>
   </si>
   <si>
+    <t>bugs</t>
+  </si>
+  <si>
+    <t>bugs_products</t>
+  </si>
+  <si>
+    <t>employee</t>
+  </si>
+  <si>
+    <t>order_desc</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
     <t>quest</t>
   </si>
   <si>
+    <t>tasks</t>
+  </si>
+  <si>
+    <t>user_task_relation</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>ListBook</t>
+  </si>
+  <si>
+    <t>book.sql</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>ListBookByPublish</t>
+  </si>
+  <si>
     <t>CreateBookHistoryByBook</t>
   </si>
   <si>
-    <t>book.sql</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
+    <t>ListBug</t>
+  </si>
+  <si>
+    <t>bug.sql</t>
+  </si>
+  <si>
+    <t>R, R</t>
+  </si>
+  <si>
+    <t>ListUserAndEmployee</t>
+  </si>
+  <si>
+    <t>employee.sql</t>
+  </si>
+  <si>
     <t>ListGuest</t>
   </si>
   <si>
     <t>guest.sql</t>
+  </si>
+  <si>
+    <t>ListOrder</t>
+  </si>
+  <si>
+    <t>order.sql</t>
+  </si>
+  <si>
+    <t>CreateTask</t>
+  </si>
+  <si>
+    <t>task.sql</t>
+  </si>
+  <si>
+    <t>ListTask</t>
+  </si>
+  <si>
+    <t>CreateUser</t>
+  </si>
+  <si>
+    <t>user.sql</t>
+  </si>
+  <si>
+    <t>GetUserByID</t>
+  </si>
+  <si>
+    <t>ListUserByTask</t>
+  </si>
+  <si>
+    <t>UpdateUserAsLoggedIn</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>DeleteUser</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -359,10 +452,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col customWidth="true" max="1" min="1" width="4"/>
     <col customWidth="true" max="2" min="2" width="26"/>
-    <col customWidth="true" max="3" min="3" width="12"/>
-    <col customWidth="true" max="4" min="4" width="15"/>
-    <col customWidth="true" max="6" min="5" width="6"/>
+    <col customWidth="true" max="3" min="3" width="15"/>
+    <col customWidth="true" max="4" min="4" width="9"/>
+    <col customWidth="true" max="5" min="5" width="7"/>
+    <col customWidth="true" max="6" min="6" width="13"/>
+    <col customWidth="true" max="7" min="7" width="15"/>
+    <col customWidth="true" max="8" min="8" width="6"/>
+    <col customWidth="true" max="9" min="9" width="5"/>
+    <col customWidth="true" max="10" min="10" width="14"/>
+    <col customWidth="true" max="11" min="11" width="9"/>
+    <col customWidth="true" max="12" min="12" width="11"/>
+    <col customWidth="true" max="13" min="13" width="8"/>
+    <col customWidth="true" max="15" min="14" width="6"/>
+    <col customWidth="true" max="16" min="16" width="19"/>
+    <col customWidth="true" max="17" min="17" width="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -384,22 +489,52 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -407,13 +542,205 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
-        <v>8</v>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="P13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/CRUD.xlsx
+++ b/CRUD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>No</t>
   </si>
@@ -25,16 +25,142 @@
     <t>SQLファイル名</t>
   </si>
   <si>
+    <t>accounts</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>author_books</t>
+  </si>
+  <si>
+    <t>book_histories</t>
+  </si>
+  <si>
+    <t>books</t>
+  </si>
+  <si>
+    <t>bugs</t>
+  </si>
+  <si>
+    <t>bugs_products</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>employee</t>
+  </si>
+  <si>
+    <t>order_desc</t>
+  </si>
+  <si>
+    <t>payment</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
     <t>quest</t>
   </si>
   <si>
+    <t>quest2</t>
+  </si>
+  <si>
+    <t>tasks</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>user_task_relation</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>ListBook</t>
+  </si>
+  <si>
+    <t>book.sql</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>ListBookByPublish</t>
+  </si>
+  <si>
+    <t>CreateBookHistoryByBook</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>ListBug</t>
+  </si>
+  <si>
+    <t>bug.sql</t>
+  </si>
+  <si>
+    <t>R, R</t>
+  </si>
+  <si>
+    <t>ListUserAndEmployee</t>
+  </si>
+  <si>
+    <t>employee.sql</t>
+  </si>
+  <si>
     <t>ListGuest</t>
   </si>
   <si>
     <t>guest.sql</t>
   </si>
   <si>
-    <t>R</t>
+    <t>ListOrder</t>
+  </si>
+  <si>
+    <t>order.sql</t>
+  </si>
+  <si>
+    <t>ListPaymentAndCustomer</t>
+  </si>
+  <si>
+    <t>payment.sql</t>
+  </si>
+  <si>
+    <t>CreateTask</t>
+  </si>
+  <si>
+    <t>task.sql</t>
+  </si>
+  <si>
+    <t>ListTask</t>
+  </si>
+  <si>
+    <t>CreateUser</t>
+  </si>
+  <si>
+    <t>user.sql</t>
+  </si>
+  <si>
+    <t>GetUserByID</t>
+  </si>
+  <si>
+    <t>ListUserByTask</t>
+  </si>
+  <si>
+    <t>UpdateUserAsLoggedIn</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>DeleteUser</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -344,8 +470,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col customWidth="true" max="3" min="2" width="12"/>
-    <col customWidth="true" max="4" min="4" width="6"/>
+    <col customWidth="true" max="1" min="1" width="4"/>
+    <col customWidth="true" max="2" min="2" width="26"/>
+    <col customWidth="true" max="3" min="3" width="15"/>
+    <col customWidth="true" max="4" min="4" width="9"/>
+    <col customWidth="true" max="5" min="5" width="7"/>
+    <col customWidth="true" max="6" min="6" width="13"/>
+    <col customWidth="true" max="7" min="7" width="15"/>
+    <col customWidth="true" max="8" min="8" width="6"/>
+    <col customWidth="true" max="9" min="9" width="5"/>
+    <col customWidth="true" max="10" min="10" width="14"/>
+    <col customWidth="true" max="12" min="11" width="9"/>
+    <col customWidth="true" max="13" min="13" width="11"/>
+    <col customWidth="true" max="15" min="14" width="8"/>
+    <col customWidth="true" max="16" min="16" width="6"/>
+    <col customWidth="true" max="17" min="17" width="7"/>
+    <col customWidth="true" max="19" min="18" width="6"/>
+    <col customWidth="true" max="20" min="20" width="19"/>
+    <col customWidth="true" max="21" min="21" width="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -361,19 +503,299 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" t="s">
+        <v>23</v>
+      </c>
+      <c r="U6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
         <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" t="s">
+        <v>23</v>
+      </c>
+      <c r="S9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="R10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="R11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="U12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="U13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="T14" t="s">
+        <v>23</v>
+      </c>
+      <c r="U14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="U15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="U16" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/CRUD.xlsx
+++ b/CRUD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>No</t>
   </si>
@@ -28,6 +28,12 @@
     <t>accounts</t>
   </si>
   <si>
+    <t>all_app_systems</t>
+  </si>
+  <si>
+    <t>appsystems</t>
+  </si>
+  <si>
     <t>author</t>
   </si>
   <si>
@@ -49,9 +55,24 @@
     <t>customer</t>
   </si>
   <si>
+    <t>data_analyst_systems</t>
+  </si>
+  <si>
     <t>employee</t>
   </si>
   <si>
+    <t>employee_not_using_all_systems</t>
+  </si>
+  <si>
+    <t>employee_uses_all_systems</t>
+  </si>
+  <si>
+    <t>employeeappsystems</t>
+  </si>
+  <si>
+    <t>employees</t>
+  </si>
+  <si>
     <t>order_desc</t>
   </si>
   <si>
@@ -67,6 +88,9 @@
     <t>quest2</t>
   </si>
   <si>
+    <t>roleappsystems</t>
+  </si>
+  <si>
     <t>tasks</t>
   </si>
   <si>
@@ -110,6 +134,12 @@
   </si>
   <si>
     <t>employee.sql</t>
+  </si>
+  <si>
+    <t>ListEmployeeForAllSystemUses</t>
+  </si>
+  <si>
+    <t>ListEmployeeForDataAnalyst</t>
   </si>
   <si>
     <t>ListGuest</t>
@@ -471,23 +501,32 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col customWidth="true" max="1" min="1" width="4"/>
-    <col customWidth="true" max="2" min="2" width="26"/>
+    <col customWidth="true" max="2" min="2" width="31"/>
     <col customWidth="true" max="3" min="3" width="15"/>
     <col customWidth="true" max="4" min="4" width="9"/>
-    <col customWidth="true" max="5" min="5" width="7"/>
-    <col customWidth="true" max="6" min="6" width="13"/>
-    <col customWidth="true" max="7" min="7" width="15"/>
-    <col customWidth="true" max="8" min="8" width="6"/>
-    <col customWidth="true" max="9" min="9" width="5"/>
-    <col customWidth="true" max="10" min="10" width="14"/>
-    <col customWidth="true" max="12" min="11" width="9"/>
-    <col customWidth="true" max="13" min="13" width="11"/>
-    <col customWidth="true" max="15" min="14" width="8"/>
-    <col customWidth="true" max="16" min="16" width="6"/>
-    <col customWidth="true" max="17" min="17" width="7"/>
-    <col customWidth="true" max="19" min="18" width="6"/>
-    <col customWidth="true" max="20" min="20" width="19"/>
-    <col customWidth="true" max="21" min="21" width="6"/>
+    <col customWidth="true" max="5" min="5" width="16"/>
+    <col customWidth="true" max="6" min="6" width="11"/>
+    <col customWidth="true" max="7" min="7" width="7"/>
+    <col customWidth="true" max="8" min="8" width="13"/>
+    <col customWidth="true" max="9" min="9" width="15"/>
+    <col customWidth="true" max="10" min="10" width="6"/>
+    <col customWidth="true" max="11" min="11" width="5"/>
+    <col customWidth="true" max="12" min="12" width="14"/>
+    <col customWidth="true" max="13" min="13" width="9"/>
+    <col customWidth="true" max="14" min="14" width="21"/>
+    <col customWidth="true" max="15" min="15" width="9"/>
+    <col customWidth="true" max="16" min="16" width="31"/>
+    <col customWidth="true" max="17" min="17" width="26"/>
+    <col customWidth="true" max="18" min="18" width="19"/>
+    <col customWidth="true" max="19" min="19" width="10"/>
+    <col customWidth="true" max="20" min="20" width="11"/>
+    <col customWidth="true" max="22" min="21" width="8"/>
+    <col customWidth="true" max="23" min="23" width="6"/>
+    <col customWidth="true" max="24" min="24" width="7"/>
+    <col customWidth="true" max="25" min="25" width="15"/>
+    <col customWidth="true" max="27" min="26" width="6"/>
+    <col customWidth="true" max="28" min="28" width="19"/>
+    <col customWidth="true" max="29" min="29" width="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -554,19 +593,43 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -574,19 +637,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4">
@@ -594,16 +657,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -611,19 +674,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" t="s">
-        <v>23</v>
+        <v>37</v>
+      </c>
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6">
@@ -631,16 +694,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" t="s">
-        <v>23</v>
-      </c>
-      <c r="U6" t="s">
-        <v>23</v>
+        <v>39</v>
+      </c>
+      <c r="O6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7">
@@ -648,16 +711,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
       </c>
       <c r="P7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="Q7" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+      <c r="R7" t="s">
+        <v>31</v>
+      </c>
+      <c r="S7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8">
@@ -665,16 +740,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O8" t="s">
-        <v>23</v>
+        <v>39</v>
+      </c>
+      <c r="N8" t="s">
+        <v>37</v>
+      </c>
+      <c r="R8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -682,19 +760,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N9" t="s">
-        <v>23</v>
-      </c>
-      <c r="S9" t="s">
-        <v>23</v>
+        <v>43</v>
+      </c>
+      <c r="W9" t="s">
+        <v>31</v>
+      </c>
+      <c r="X9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10">
@@ -702,13 +777,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="R10" t="s">
-        <v>26</v>
+        <v>45</v>
+      </c>
+      <c r="T10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11">
@@ -716,13 +794,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="R11" t="s">
-        <v>23</v>
+        <v>47</v>
+      </c>
+      <c r="M11" t="s">
+        <v>31</v>
+      </c>
+      <c r="U11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12">
@@ -730,13 +814,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
-      </c>
-      <c r="U12" t="s">
-        <v>26</v>
+        <v>49</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13">
@@ -744,13 +828,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
-      </c>
-      <c r="U13" t="s">
-        <v>23</v>
+        <v>49</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14">
@@ -758,16 +842,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
-      </c>
-      <c r="T14" t="s">
-        <v>23</v>
-      </c>
-      <c r="U14" t="s">
-        <v>23</v>
+        <v>52</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15">
@@ -775,13 +856,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
-      </c>
-      <c r="U15" t="s">
-        <v>46</v>
+        <v>52</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
@@ -789,13 +870,44 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="U16" t="s">
-        <v>48</v>
+        <v>52</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
